--- a/data.xlsx
+++ b/data.xlsx
@@ -14,102 +14,195 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26" count="26">
-  <x:si>
-    <x:t>_mongooseOptions</x:t>
-  </x:si>
-  <x:si>
-    <x:t>_transforms</x:t>
-  </x:si>
-  <x:si>
-    <x:t>_hooks</x:t>
-  </x:si>
-  <x:si>
-    <x:t>_executionStack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mongooseCollection</x:t>
-  </x:si>
-  <x:si>
-    <x:t>model</x:t>
-  </x:si>
-  <x:si>
-    <x:t>schema</x:t>
-  </x:si>
-  <x:si>
-    <x:t>op</x:t>
-  </x:si>
-  <x:si>
-    <x:t>options</x:t>
-  </x:si>
-  <x:si>
-    <x:t>_conditions</x:t>
-  </x:si>
-  <x:si>
-    <x:t>_fields</x:t>
-  </x:si>
-  <x:si>
-    <x:t>_updateDoc</x:t>
-  </x:si>
-  <x:si>
-    <x:t>_path</x:t>
-  </x:si>
-  <x:si>
-    <x:t>_distinctDoc</x:t>
-  </x:si>
-  <x:si>
-    <x:t>_collection</x:t>
-  </x:si>
-  <x:si>
-    <x:t>_traceFunction</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$useProjection</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{}</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>[object Object]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[object Object]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>function model(doc, fields, skipId) {
-      model.hooks.execPreSync('createModel', doc);
-      if (!(this instanceof model)) {
-        return new model(doc, fields, skipId);
-      }
-      const discriminatorKey = model.schema.options.discriminatorKey;
-      if (model.discriminators == null || doc == null || doc[discriminatorKey] == null) {
-        Model.call(this, doc, fields, skipId);
-        return;
-      }
-      // If discriminator key is set, use the discriminator instead (gh-7586)
-      const Discriminator = model.discriminators[doc[discriminatorKey]] ||
-        getDiscriminatorByValue(model.discriminators, doc[discriminatorKey]);
-      if (Discriminator != null) {
-        return new Discriminator(doc, fields, skipId);
-      }
-      // Otherwise, just use the top-level model
-      Model.call(this, doc, fields, skipId);
-    }</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[object Object]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>find</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"userid":"64cb269b2efc347cc8016189"}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[object Object]</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63" count="63">
+  <x:si>
+    <x:t>$__</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$isNew</x:t>
+  </x:si>
+  <x:si>
+    <x:t>_doc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"_id":"64cb6724e7d505b61c37a79a","product_id":"15342894102988624905","store_name":"Flipkart","store_rating":null,"store_review_count":"0","store_reviews_page_url":null,"price":"₹25,499.00","shipping":"Delivery date and cost shown at checkout","on_sale":"false","original_price":null,"product_condition":"NEW","userid":"64cb269b2efc347cc8016189","date":"2023-08-03T08:36:52.431Z","__v":0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"_id":"64cb6724e7d505b61c37a79b","product_id":"5440093104062547359","store_name":"Reliance Digital","store_rating":null,"store_review_count":"0","store_reviews_page_url":null,"price":"₹22,999.00","shipping":"Free delivery by Wed, 9 Aug","on_sale":"false","original_price":null,"product_condition":"NEW","userid":"64cb269b2efc347cc8016189","date":"2023-08-03T08:36:52.433Z","__v":0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"_id":"64cb6724e7d505b61c37a79c","product_id":"1:16535946905509543358","store_name":"Cashify","store_rating":null,"store_review_count":"0","store_reviews_page_url":null,"price":"₹17,399.00","shipping":"Free delivery by Thu, 17 Aug","on_sale":"false","original_price":null,"product_condition":"REFURBISHED","userid":"64cb269b2efc347cc8016189","date":"2023-08-03T08:36:52.434Z","__v":0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"_id":"64cb6724e7d505b61c37a79d","product_id":"1:6821935834785615541","store_name":"Arnav telecom","store_rating":null,"store_review_count":"0","store_reviews_page_url":null,"price":"₹26,999.00","shipping":"Free delivery by Thu, 10 Aug","on_sale":"false","original_price":null,"product_condition":"NEW","userid":"64cb269b2efc347cc8016189","date":"2023-08-03T08:36:52.435Z","__v":0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"_id":"64cb6724e7d505b61c37a79e","product_id":"1:3756678895103489803","store_name":"Cashify","store_rating":null,"store_review_count":"0","store_reviews_page_url":null,"price":"₹18,499.00","shipping":"Free delivery by Thu, 17 Aug","on_sale":"false","original_price":null,"product_condition":"REFURBISHED","userid":"64cb269b2efc347cc8016189","date":"2023-08-03T08:36:52.436Z","__v":0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"_id":"64cb6724e7d505b61c37a79f","product_id":"16944813576670855793","store_name":"Sangeetha Mobiles","store_rating":null,"store_review_count":"0","store_reviews_page_url":null,"price":"₹12,999.00","shipping":"Free delivery by Sun, 6 Aug","on_sale":"false","original_price":null,"product_condition":"NEW","userid":"64cb269b2efc347cc8016189","date":"2023-08-03T08:36:52.437Z","__v":0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"_id":"64cb6724e7d505b61c37a7a0","product_id":"1998060179365473245","store_name":"Vijay Sales","store_rating":null,"store_review_count":"0","store_reviews_page_url":null,"price":"₹20,999.00","shipping":"Free delivery","on_sale":"false","original_price":null,"product_condition":"NEW","userid":"64cb269b2efc347cc8016189","date":"2023-08-03T08:36:52.439Z","__v":0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"_id":"64cb6724e7d505b61c37a7a1","product_id":"1:7010129207392489014","store_name":"Arnav telecom","store_rating":null,"store_review_count":"0","store_reviews_page_url":null,"price":"₹26,999.00","shipping":"Free delivery by Thu, 10 Aug","on_sale":"false","original_price":null,"product_condition":"NEW","userid":"64cb269b2efc347cc8016189","date":"2023-08-03T08:36:52.441Z","__v":0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"_id":"64cb6724e7d505b61c37a7a2","product_id":"5807009996057764749","store_name":"eBay","store_rating":null,"store_review_count":"0","store_reviews_page_url":null,"price":"₹86,433.21 + tax","shipping":"Delivery date and cost shown at checkout","on_sale":"false","original_price":null,"product_condition":"NEW","userid":"64cb269b2efc347cc8016189","date":"2023-08-03T08:36:52.447Z","__v":0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"_id":"64cb6724e7d505b61c37a7a3","product_id":"1:18390726551045984013","store_name":"Jmdcommunication.com","store_rating":null,"store_review_count":"0","store_reviews_page_url":null,"price":"₹26,999.00","shipping":"Free delivery by Tue, 15 Aug","on_sale":"false","original_price":null,"product_condition":"NEW","userid":"64cb269b2efc347cc8016189","date":"2023-08-03T08:36:52.449Z","__v":0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"_id":"64cb6724e7d505b61c37a7a4","product_id":"1:11409140431202548067","store_name":"JioMart - Electronics","store_rating":null,"store_review_count":"0","store_reviews_page_url":null,"price":"₹24,999.00","shipping":"Free delivery by Mon, 7 Aug","on_sale":"false","original_price":null,"product_condition":"NEW","userid":"64cb269b2efc347cc8016189","date":"2023-08-03T08:36:52.450Z","__v":0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"_id":"64cb6724e7d505b61c37a7a5","product_id":"1:6399005507651571188","store_name":"buyyzodigital","store_rating":null,"store_review_count":"0","store_reviews_page_url":null,"price":"₹26,999.00","shipping":"Free delivery by Thu, 17 Aug","on_sale":"false","original_price":null,"product_condition":"NEW","userid":"64cb269b2efc347cc8016189","date":"2023-08-03T08:36:52.452Z","__v":0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"_id":"64cb6724e7d505b61c37a7a6","product_id":"16416590967979556035","store_name":"JustJaldi","store_rating":null,"store_review_count":"0","store_reviews_page_url":null,"price":"₹16,490.00","shipping":"Free delivery by Sat, 5 Aug","on_sale":"false","original_price":null,"product_condition":"NEW","userid":"64cb269b2efc347cc8016189","date":"2023-08-03T08:36:52.452Z","__v":0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"_id":"64cb6724e7d505b61c37a7a7","product_id":"1:4587809234809328433","store_name":"DHgate online store","store_rating":null,"store_review_count":"0","store_reviews_page_url":null,"price":"₹24,422.14 + tax","shipping":"Free delivery","on_sale":"false","original_price":null,"product_condition":"NEW","userid":"64cb269b2efc347cc8016189","date":"2023-08-03T08:36:52.453Z","__v":0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"_id":"64cb6724e7d505b61c37a7a8","product_id":"1:2112254314528949269","store_name":"Zebrs","store_rating":null,"store_review_count":"0","store_reviews_page_url":null,"price":"₹27,499.00","shipping":"Free delivery by Sun, 20 Aug","on_sale":"false","original_price":null,"product_condition":"NEW","userid":"64cb269b2efc347cc8016189","date":"2023-08-03T08:36:52.453Z","__v":0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"_id":"64cb6724e7d505b61c37a7a9","product_id":"1:3659403935764513743","store_name":"Fonebook","store_rating":null,"store_review_count":"0","store_reviews_page_url":null,"price":"₹29,499.00","shipping":"Free delivery by Thu, 10 Aug","on_sale":"false","original_price":null,"product_condition":"NEW","userid":"64cb269b2efc347cc8016189","date":"2023-08-03T08:36:52.454Z","__v":0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"_id":"64cb6724e7d505b61c37a7aa","product_id":"1:7583639723363517611","store_name":"Mi Store Palava","store_rating":null,"store_review_count":"0","store_reviews_page_url":null,"price":"₹22,999.00","shipping":"₹31.00 delivery by Wed, 9 Aug","on_sale":"false","original_price":null,"product_condition":"NEW","userid":"64cb269b2efc347cc8016189","date":"2023-08-03T08:36:52.454Z","__v":0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"_id":"64cb6724e7d505b61c37a7ab","product_id":"1:4824356149096130915","store_name":"Jmdcommunication.com","store_rating":null,"store_review_count":"0","store_reviews_page_url":null,"price":"₹26,999.00","shipping":"Free delivery by Tue, 15 Aug","on_sale":"false","original_price":null,"product_condition":"NEW","userid":"64cb269b2efc347cc8016189","date":"2023-08-03T08:36:52.454Z","__v":0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"_id":"64cb6724e7d505b61c37a7ac","product_id":"1:1517051889354486874","store_name":"DHgate online store","store_rating":null,"store_review_count":"0","store_reviews_page_url":null,"price":"₹26,233.51 + tax","shipping":"Free delivery","on_sale":"false","original_price":null,"product_condition":"NEW","userid":"64cb269b2efc347cc8016189","date":"2023-08-03T08:36:52.455Z","__v":0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"_id":"64cb6724e7d505b61c37a7ad","product_id":"1:2731951682148215037","store_name":"OhLocal","store_rating":null,"store_review_count":"0","store_reviews_page_url":null,"price":"₹23,010.00","shipping":"Free delivery by Wed, 16 Aug","on_sale":"false","original_price":null,"product_condition":"NEW","userid":"64cb269b2efc347cc8016189","date":"2023-08-03T08:36:52.455Z","__v":0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"_id":"64cb6724e7d505b61c37a7ae","product_id":"1:6922579383450578830","store_name":"astore","store_rating":null,"store_review_count":"0","store_reviews_page_url":null,"price":"₹59,999.00","shipping":"Free delivery by Tue, 15 Aug","on_sale":"false","original_price":null,"product_condition":"NEW","userid":"64cb269b2efc347cc8016189","date":"2023-08-03T08:36:52.455Z","__v":0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"_id":"64cb6724e7d505b61c37a7af","product_id":"1:17784858718904774770","store_name":"DHgate online store","store_rating":null,"store_review_count":"0","store_reviews_page_url":null,"price":"₹18,679.50 + tax","shipping":"Free delivery","on_sale":"false","original_price":null,"product_condition":"NEW","userid":"64cb269b2efc347cc8016189","date":"2023-08-03T08:36:52.456Z","__v":0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"_id":"64cb6724e7d505b61c37a7b0","product_id":"1:9156525197787952701","store_name":"Bidbuddy","store_rating":null,"store_review_count":"0","store_reviews_page_url":null,"price":"₹29,999.00","shipping":"Free delivery by Wed, 9 Aug","on_sale":"false","original_price":null,"product_condition":"NEW","userid":"64cb269b2efc347cc8016189","date":"2023-08-03T08:36:52.456Z","__v":0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"_id":"64cb6724e7d505b61c37a7b1","product_id":"1:1254817978015427508","store_name":"DHgate online store","store_rating":null,"store_review_count":"0","store_reviews_page_url":null,"price":"₹46,157.82 + tax","shipping":"Free delivery","on_sale":"false","original_price":null,"product_condition":"NEW","userid":"64cb269b2efc347cc8016189","date":"2023-08-03T08:36:52.456Z","__v":0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"_id":"64cb6724e7d505b61c37a7b2","product_id":"1:9263863905026426445","store_name":"OhLocal","store_rating":null,"store_review_count":"0","store_reviews_page_url":null,"price":"₹24,499.00","shipping":"Free delivery by Wed, 16 Aug","on_sale":"false","original_price":null,"product_condition":"NEW","userid":"64cb269b2efc347cc8016189","date":"2023-08-03T08:36:52.457Z","__v":0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"_id":"64cb6724e7d505b61c37a7b3","product_id":"1:14571377951340403482","store_name":"Etoren.com","store_rating":null,"store_review_count":"0","store_reviews_page_url":null,"price":"₹37,799.02 + tax","shipping":"₹2,315.92 delivery by Sun, 20 Aug","on_sale":"false","original_price":null,"product_condition":"NEW","userid":"64cb269b2efc347cc8016189","date":"2023-08-03T08:36:52.457Z","__v":0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"_id":"64cb6724e7d505b61c37a7b4","product_id":"1:17714650198821040045","store_name":"Zebrs","store_rating":null,"store_review_count":"0","store_reviews_page_url":null,"price":"₹27,499.00","shipping":"Free delivery by Sun, 20 Aug","on_sale":"false","original_price":null,"product_condition":"NEW","userid":"64cb269b2efc347cc8016189","date":"2023-08-03T08:36:52.479Z","__v":0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"_id":"64cb6724e7d505b61c37a7b5","product_id":"1:13870738289087412831","store_name":"Xtracover","store_rating":null,"store_review_count":"0","store_reviews_page_url":null,"price":"₹11,500.00","shipping":"Free delivery","on_sale":"false","original_price":null,"product_condition":"REFURBISHED","userid":"64cb269b2efc347cc8016189","date":"2023-08-03T08:36:52.480Z","__v":0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"_id":"64cb6724e7d505b61c37a7b6","product_id":"1:12973249827960581166","store_name":"Touch LCD Baba","store_rating":null,"store_review_count":"0","store_reviews_page_url":null,"price":"₹5,590.00","shipping":"Free delivery","on_sale":"false","original_price":null,"product_condition":"NEW","userid":"64cb269b2efc347cc8016189","date":"2023-08-03T08:36:52.480Z","__v":0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"_id":"64cb6724e7d505b61c37a7b7","product_id":"1:2148061529950990635","store_name":"Etoren.com","store_rating":null,"store_review_count":"0","store_reviews_page_url":null,"price":"₹37,799.02 + tax","shipping":"₹2,315.92 delivery by Sun, 20 Aug","on_sale":"false","original_price":null,"product_condition":"NEW","userid":"64cb269b2efc347cc8016189","date":"2023-08-03T08:36:52.481Z","__v":0}</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -472,7 +565,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:17">
+    <x:row r="1" spans="1:3">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -482,82 +575,335 @@
       <x:c r="C1" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D1" s="0" t="s">
+    </x:row>
+    <x:row r="2" spans="1:3">
+      <x:c r="A2" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E1" s="0" t="s">
+      <x:c r="B2" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F1" s="0" t="s">
+    </x:row>
+    <x:row r="3" spans="1:3">
+      <x:c r="A3" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G1" s="0" t="s">
+      <x:c r="B3" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="H1" s="0" t="s">
+    </x:row>
+    <x:row r="4" spans="1:3">
+      <x:c r="A4" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="I1" s="0" t="s">
+      <x:c r="B4" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="J1" s="0" t="s">
+    </x:row>
+    <x:row r="5" spans="1:3">
+      <x:c r="A5" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="K1" s="0" t="s">
+      <x:c r="B5" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="L1" s="0" t="s">
+    </x:row>
+    <x:row r="6" spans="1:3">
+      <x:c r="A6" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="M1" s="0" t="s">
+      <x:c r="B6" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="N1" s="0" t="s">
+    </x:row>
+    <x:row r="7" spans="1:3">
+      <x:c r="A7" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="O1" s="0" t="s">
+      <x:c r="B7" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="P1" s="0" t="s">
+    </x:row>
+    <x:row r="8" spans="1:3">
+      <x:c r="A8" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="Q1" s="0" t="s">
+      <x:c r="B8" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:17">
-      <x:c r="A2" s="0" t="s">
+    <x:row r="9" spans="1:3">
+      <x:c r="A9" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="B2" s="0" t="s">
+      <x:c r="B9" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="C2" s="0" t="s">
+    </x:row>
+    <x:row r="10" spans="1:3">
+      <x:c r="A10" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="E2" s="0" t="s">
+      <x:c r="B10" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="F2" s="0" t="s">
+    </x:row>
+    <x:row r="11" spans="1:3">
+      <x:c r="A11" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="G2" s="0" t="s">
+      <x:c r="B11" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="H2" s="0" t="s">
+    </x:row>
+    <x:row r="12" spans="1:3">
+      <x:c r="A12" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="I2" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="J2" s="0" t="s">
+      <x:c r="B12" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="O2" s="0" t="s">
+    </x:row>
+    <x:row r="13" spans="1:3">
+      <x:c r="A13" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="Q2" s="0" t="b">
-        <x:v>1</x:v>
+      <x:c r="B13" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:3">
+      <x:c r="A14" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:3">
+      <x:c r="A15" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:3">
+      <x:c r="A16" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:3">
+      <x:c r="A17" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:3">
+      <x:c r="A18" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:3">
+      <x:c r="A19" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:3">
+      <x:c r="A20" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:3">
+      <x:c r="A21" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:3">
+      <x:c r="A22" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:3">
+      <x:c r="A23" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:3">
+      <x:c r="A24" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:3">
+      <x:c r="A25" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:3">
+      <x:c r="A26" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:3">
+      <x:c r="A27" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:3">
+      <x:c r="A28" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:3">
+      <x:c r="A29" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:3">
+      <x:c r="A30" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:3">
+      <x:c r="A31" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C31" s="0" t="s">
+        <x:v>62</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -28,181 +28,181 @@
     <x:t>[object Object]</x:t>
   </x:si>
   <x:si>
-    <x:t>{"_id":"64cb6724e7d505b61c37a79a","product_id":"15342894102988624905","store_name":"Flipkart","store_rating":null,"store_review_count":"0","store_reviews_page_url":null,"price":"₹25,499.00","shipping":"Delivery date and cost shown at checkout","on_sale":"false","original_price":null,"product_condition":"NEW","userid":"64cb269b2efc347cc8016189","date":"2023-08-03T08:36:52.431Z","__v":0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[object Object]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"_id":"64cb6724e7d505b61c37a79b","product_id":"5440093104062547359","store_name":"Reliance Digital","store_rating":null,"store_review_count":"0","store_reviews_page_url":null,"price":"₹22,999.00","shipping":"Free delivery by Wed, 9 Aug","on_sale":"false","original_price":null,"product_condition":"NEW","userid":"64cb269b2efc347cc8016189","date":"2023-08-03T08:36:52.433Z","__v":0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[object Object]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"_id":"64cb6724e7d505b61c37a79c","product_id":"1:16535946905509543358","store_name":"Cashify","store_rating":null,"store_review_count":"0","store_reviews_page_url":null,"price":"₹17,399.00","shipping":"Free delivery by Thu, 17 Aug","on_sale":"false","original_price":null,"product_condition":"REFURBISHED","userid":"64cb269b2efc347cc8016189","date":"2023-08-03T08:36:52.434Z","__v":0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[object Object]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"_id":"64cb6724e7d505b61c37a79d","product_id":"1:6821935834785615541","store_name":"Arnav telecom","store_rating":null,"store_review_count":"0","store_reviews_page_url":null,"price":"₹26,999.00","shipping":"Free delivery by Thu, 10 Aug","on_sale":"false","original_price":null,"product_condition":"NEW","userid":"64cb269b2efc347cc8016189","date":"2023-08-03T08:36:52.435Z","__v":0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[object Object]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"_id":"64cb6724e7d505b61c37a79e","product_id":"1:3756678895103489803","store_name":"Cashify","store_rating":null,"store_review_count":"0","store_reviews_page_url":null,"price":"₹18,499.00","shipping":"Free delivery by Thu, 17 Aug","on_sale":"false","original_price":null,"product_condition":"REFURBISHED","userid":"64cb269b2efc347cc8016189","date":"2023-08-03T08:36:52.436Z","__v":0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[object Object]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"_id":"64cb6724e7d505b61c37a79f","product_id":"16944813576670855793","store_name":"Sangeetha Mobiles","store_rating":null,"store_review_count":"0","store_reviews_page_url":null,"price":"₹12,999.00","shipping":"Free delivery by Sun, 6 Aug","on_sale":"false","original_price":null,"product_condition":"NEW","userid":"64cb269b2efc347cc8016189","date":"2023-08-03T08:36:52.437Z","__v":0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[object Object]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"_id":"64cb6724e7d505b61c37a7a0","product_id":"1998060179365473245","store_name":"Vijay Sales","store_rating":null,"store_review_count":"0","store_reviews_page_url":null,"price":"₹20,999.00","shipping":"Free delivery","on_sale":"false","original_price":null,"product_condition":"NEW","userid":"64cb269b2efc347cc8016189","date":"2023-08-03T08:36:52.439Z","__v":0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[object Object]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"_id":"64cb6724e7d505b61c37a7a1","product_id":"1:7010129207392489014","store_name":"Arnav telecom","store_rating":null,"store_review_count":"0","store_reviews_page_url":null,"price":"₹26,999.00","shipping":"Free delivery by Thu, 10 Aug","on_sale":"false","original_price":null,"product_condition":"NEW","userid":"64cb269b2efc347cc8016189","date":"2023-08-03T08:36:52.441Z","__v":0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[object Object]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"_id":"64cb6724e7d505b61c37a7a2","product_id":"5807009996057764749","store_name":"eBay","store_rating":null,"store_review_count":"0","store_reviews_page_url":null,"price":"₹86,433.21 + tax","shipping":"Delivery date and cost shown at checkout","on_sale":"false","original_price":null,"product_condition":"NEW","userid":"64cb269b2efc347cc8016189","date":"2023-08-03T08:36:52.447Z","__v":0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[object Object]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"_id":"64cb6724e7d505b61c37a7a3","product_id":"1:18390726551045984013","store_name":"Jmdcommunication.com","store_rating":null,"store_review_count":"0","store_reviews_page_url":null,"price":"₹26,999.00","shipping":"Free delivery by Tue, 15 Aug","on_sale":"false","original_price":null,"product_condition":"NEW","userid":"64cb269b2efc347cc8016189","date":"2023-08-03T08:36:52.449Z","__v":0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[object Object]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"_id":"64cb6724e7d505b61c37a7a4","product_id":"1:11409140431202548067","store_name":"JioMart - Electronics","store_rating":null,"store_review_count":"0","store_reviews_page_url":null,"price":"₹24,999.00","shipping":"Free delivery by Mon, 7 Aug","on_sale":"false","original_price":null,"product_condition":"NEW","userid":"64cb269b2efc347cc8016189","date":"2023-08-03T08:36:52.450Z","__v":0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[object Object]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"_id":"64cb6724e7d505b61c37a7a5","product_id":"1:6399005507651571188","store_name":"buyyzodigital","store_rating":null,"store_review_count":"0","store_reviews_page_url":null,"price":"₹26,999.00","shipping":"Free delivery by Thu, 17 Aug","on_sale":"false","original_price":null,"product_condition":"NEW","userid":"64cb269b2efc347cc8016189","date":"2023-08-03T08:36:52.452Z","__v":0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[object Object]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"_id":"64cb6724e7d505b61c37a7a6","product_id":"16416590967979556035","store_name":"JustJaldi","store_rating":null,"store_review_count":"0","store_reviews_page_url":null,"price":"₹16,490.00","shipping":"Free delivery by Sat, 5 Aug","on_sale":"false","original_price":null,"product_condition":"NEW","userid":"64cb269b2efc347cc8016189","date":"2023-08-03T08:36:52.452Z","__v":0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[object Object]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"_id":"64cb6724e7d505b61c37a7a7","product_id":"1:4587809234809328433","store_name":"DHgate online store","store_rating":null,"store_review_count":"0","store_reviews_page_url":null,"price":"₹24,422.14 + tax","shipping":"Free delivery","on_sale":"false","original_price":null,"product_condition":"NEW","userid":"64cb269b2efc347cc8016189","date":"2023-08-03T08:36:52.453Z","__v":0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[object Object]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"_id":"64cb6724e7d505b61c37a7a8","product_id":"1:2112254314528949269","store_name":"Zebrs","store_rating":null,"store_review_count":"0","store_reviews_page_url":null,"price":"₹27,499.00","shipping":"Free delivery by Sun, 20 Aug","on_sale":"false","original_price":null,"product_condition":"NEW","userid":"64cb269b2efc347cc8016189","date":"2023-08-03T08:36:52.453Z","__v":0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[object Object]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"_id":"64cb6724e7d505b61c37a7a9","product_id":"1:3659403935764513743","store_name":"Fonebook","store_rating":null,"store_review_count":"0","store_reviews_page_url":null,"price":"₹29,499.00","shipping":"Free delivery by Thu, 10 Aug","on_sale":"false","original_price":null,"product_condition":"NEW","userid":"64cb269b2efc347cc8016189","date":"2023-08-03T08:36:52.454Z","__v":0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[object Object]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"_id":"64cb6724e7d505b61c37a7aa","product_id":"1:7583639723363517611","store_name":"Mi Store Palava","store_rating":null,"store_review_count":"0","store_reviews_page_url":null,"price":"₹22,999.00","shipping":"₹31.00 delivery by Wed, 9 Aug","on_sale":"false","original_price":null,"product_condition":"NEW","userid":"64cb269b2efc347cc8016189","date":"2023-08-03T08:36:52.454Z","__v":0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[object Object]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"_id":"64cb6724e7d505b61c37a7ab","product_id":"1:4824356149096130915","store_name":"Jmdcommunication.com","store_rating":null,"store_review_count":"0","store_reviews_page_url":null,"price":"₹26,999.00","shipping":"Free delivery by Tue, 15 Aug","on_sale":"false","original_price":null,"product_condition":"NEW","userid":"64cb269b2efc347cc8016189","date":"2023-08-03T08:36:52.454Z","__v":0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[object Object]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"_id":"64cb6724e7d505b61c37a7ac","product_id":"1:1517051889354486874","store_name":"DHgate online store","store_rating":null,"store_review_count":"0","store_reviews_page_url":null,"price":"₹26,233.51 + tax","shipping":"Free delivery","on_sale":"false","original_price":null,"product_condition":"NEW","userid":"64cb269b2efc347cc8016189","date":"2023-08-03T08:36:52.455Z","__v":0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[object Object]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"_id":"64cb6724e7d505b61c37a7ad","product_id":"1:2731951682148215037","store_name":"OhLocal","store_rating":null,"store_review_count":"0","store_reviews_page_url":null,"price":"₹23,010.00","shipping":"Free delivery by Wed, 16 Aug","on_sale":"false","original_price":null,"product_condition":"NEW","userid":"64cb269b2efc347cc8016189","date":"2023-08-03T08:36:52.455Z","__v":0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[object Object]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"_id":"64cb6724e7d505b61c37a7ae","product_id":"1:6922579383450578830","store_name":"astore","store_rating":null,"store_review_count":"0","store_reviews_page_url":null,"price":"₹59,999.00","shipping":"Free delivery by Tue, 15 Aug","on_sale":"false","original_price":null,"product_condition":"NEW","userid":"64cb269b2efc347cc8016189","date":"2023-08-03T08:36:52.455Z","__v":0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[object Object]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"_id":"64cb6724e7d505b61c37a7af","product_id":"1:17784858718904774770","store_name":"DHgate online store","store_rating":null,"store_review_count":"0","store_reviews_page_url":null,"price":"₹18,679.50 + tax","shipping":"Free delivery","on_sale":"false","original_price":null,"product_condition":"NEW","userid":"64cb269b2efc347cc8016189","date":"2023-08-03T08:36:52.456Z","__v":0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[object Object]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"_id":"64cb6724e7d505b61c37a7b0","product_id":"1:9156525197787952701","store_name":"Bidbuddy","store_rating":null,"store_review_count":"0","store_reviews_page_url":null,"price":"₹29,999.00","shipping":"Free delivery by Wed, 9 Aug","on_sale":"false","original_price":null,"product_condition":"NEW","userid":"64cb269b2efc347cc8016189","date":"2023-08-03T08:36:52.456Z","__v":0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[object Object]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"_id":"64cb6724e7d505b61c37a7b1","product_id":"1:1254817978015427508","store_name":"DHgate online store","store_rating":null,"store_review_count":"0","store_reviews_page_url":null,"price":"₹46,157.82 + tax","shipping":"Free delivery","on_sale":"false","original_price":null,"product_condition":"NEW","userid":"64cb269b2efc347cc8016189","date":"2023-08-03T08:36:52.456Z","__v":0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[object Object]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"_id":"64cb6724e7d505b61c37a7b2","product_id":"1:9263863905026426445","store_name":"OhLocal","store_rating":null,"store_review_count":"0","store_reviews_page_url":null,"price":"₹24,499.00","shipping":"Free delivery by Wed, 16 Aug","on_sale":"false","original_price":null,"product_condition":"NEW","userid":"64cb269b2efc347cc8016189","date":"2023-08-03T08:36:52.457Z","__v":0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[object Object]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"_id":"64cb6724e7d505b61c37a7b3","product_id":"1:14571377951340403482","store_name":"Etoren.com","store_rating":null,"store_review_count":"0","store_reviews_page_url":null,"price":"₹37,799.02 + tax","shipping":"₹2,315.92 delivery by Sun, 20 Aug","on_sale":"false","original_price":null,"product_condition":"NEW","userid":"64cb269b2efc347cc8016189","date":"2023-08-03T08:36:52.457Z","__v":0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[object Object]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"_id":"64cb6724e7d505b61c37a7b4","product_id":"1:17714650198821040045","store_name":"Zebrs","store_rating":null,"store_review_count":"0","store_reviews_page_url":null,"price":"₹27,499.00","shipping":"Free delivery by Sun, 20 Aug","on_sale":"false","original_price":null,"product_condition":"NEW","userid":"64cb269b2efc347cc8016189","date":"2023-08-03T08:36:52.479Z","__v":0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[object Object]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"_id":"64cb6724e7d505b61c37a7b5","product_id":"1:13870738289087412831","store_name":"Xtracover","store_rating":null,"store_review_count":"0","store_reviews_page_url":null,"price":"₹11,500.00","shipping":"Free delivery","on_sale":"false","original_price":null,"product_condition":"REFURBISHED","userid":"64cb269b2efc347cc8016189","date":"2023-08-03T08:36:52.480Z","__v":0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[object Object]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"_id":"64cb6724e7d505b61c37a7b6","product_id":"1:12973249827960581166","store_name":"Touch LCD Baba","store_rating":null,"store_review_count":"0","store_reviews_page_url":null,"price":"₹5,590.00","shipping":"Free delivery","on_sale":"false","original_price":null,"product_condition":"NEW","userid":"64cb269b2efc347cc8016189","date":"2023-08-03T08:36:52.480Z","__v":0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[object Object]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"_id":"64cb6724e7d505b61c37a7b7","product_id":"1:2148061529950990635","store_name":"Etoren.com","store_rating":null,"store_review_count":"0","store_reviews_page_url":null,"price":"₹37,799.02 + tax","shipping":"₹2,315.92 delivery by Sun, 20 Aug","on_sale":"false","original_price":null,"product_condition":"NEW","userid":"64cb269b2efc347cc8016189","date":"2023-08-03T08:36:52.481Z","__v":0}</x:t>
+    <x:t>{"store_name":"Flipkart","store_rating":null,"offerpageurl":"http://www.flipkart.com/xiaomi-11i-hypercharge-5g-pacific-pearl-128-gb/p/itme4127956af8b6?pid=MOBG9QWVEVKFSSHJ&amp;lid=LSTMOBG9QWVEVKFSSHJMVGKZ8&amp;marketplace=FLIPKART&amp;cmpid=content_mobile_8965229628_gmc","store_review_count":"0","store_reviews_page_url":null,"price":"₹25,499.00","shipping":"Delivery date and cost shown at checkout","on_sale":"false","original_price":null,"product_condition":"NEW"}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"store_name":"Reliance Digital","store_rating":null,"offerpageurl":"https://www.reliancedigital.in/xiaomi-11i-5g-128-gb-8-gb-stealth-black-mobile-phone/p/492574890?srsltid=AfmBOooqaUNm9QCQ1V_nbFeZoHbcpqVzFFosFIeyt6YNYnt8ULvFYCHFjPI","store_review_count":"0","store_reviews_page_url":null,"price":"₹22,999.00","shipping":"Free delivery by Wed, 9 Aug","on_sale":"false","original_price":null,"product_condition":"NEW"}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"store_name":"Cashify","store_rating":null,"offerpageurl":"https://www.cashify.in/buy-refurbished-mobile-phones/renewed-xiaomi-11i/91093?srsltid=AfmBOooqmiMPiUJuy1-qvWBf1szoiB8zg2NGbIfwlff5vrGqMs-KI6on5sA","store_review_count":"0","store_reviews_page_url":null,"price":"₹17,399.00","shipping":"Free delivery by Thu, 17 Aug","on_sale":"false","original_price":null,"product_condition":"REFURBISHED"}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"store_name":"Arnav telecom","store_rating":null,"offerpageurl":"https://arnavtelecom.com/product/xiaomi-11i-hypercharge-5g/?attribute_pa_color=stealth-black&amp;attribute_pa_variant=6gb128gb","store_review_count":"0","store_reviews_page_url":null,"price":"₹26,999.00","shipping":"Free delivery by Thu, 10 Aug","on_sale":"false","original_price":null,"product_condition":"NEW"}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"store_name":"Cashify","store_rating":null,"offerpageurl":"https://www.cashify.in/buy-refurbished-mobile-phones/renewed-xiaomi-11i-hypercharge/99162?srsltid=AfmBOopwIAGIZGqR9kX3_Dy4A1TfhWGTcXnBtWfoeJZn9YD0ew3_xJpWPWA","store_review_count":"0","store_reviews_page_url":null,"price":"₹18,499.00","shipping":"Free delivery by Thu, 17 Aug","on_sale":"false","original_price":null,"product_condition":"REFURBISHED"}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"store_name":"Sangeetha Mobiles","store_rating":null,"offerpageurl":"https://www.sangeethamobiles.com/product-details/Redmi-11-Prime-5G-4GB-64GB-Chrome-Silver-Xiaomi/8678?srsltid=AfmBOoobn8HT-nYaROXubcaz1sKJ94qb9E8wnfIAcDR_qbMKxwitZ49Ey6E","store_review_count":"0","store_reviews_page_url":null,"price":"₹12,999.00","shipping":"Free delivery by Sun, 6 Aug","on_sale":"false","original_price":null,"product_condition":"NEW"}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"store_name":"Vijay Sales","store_rating":null,"offerpageurl":"https://www.vijaysales.com/redmi-k50i-5g-6-gb-ram-128-gb-rom-phantom-blue/21895","store_review_count":"0","store_reviews_page_url":null,"price":"₹20,999.00","shipping":"Free delivery","on_sale":"false","original_price":null,"product_condition":"NEW"}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"store_name":"Arnav telecom","store_rating":null,"offerpageurl":"https://arnavtelecom.com/product/xiaomi-11i-5g/?attribute_pa_color=stealth-black&amp;attribute_pa_variant=8gb128gb","store_review_count":"0","store_reviews_page_url":null,"price":"₹26,999.00","shipping":"Free delivery by Thu, 10 Aug","on_sale":"false","original_price":null,"product_condition":"NEW"}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"store_name":"eBay","store_rating":null,"offerpageurl":"https://www.ebay.com/itm/294241031714","store_review_count":"0","store_reviews_page_url":null,"price":"₹86,496.96 + tax","shipping":"Delivery date and cost shown at checkout","on_sale":"false","original_price":null,"product_condition":"NEW"}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"store_name":"Jmdcommunication.com","store_rating":null,"offerpageurl":"https://jmdcommunication.com/products/xiaomi-11i-hypercharge-5g-1?variant=39758121467983&amp;currency=INR&amp;utm_medium=product_sync&amp;utm_source=google&amp;utm_content=sag_organic&amp;utm_campaign=sag_organic&amp;srsltid=AfmBOopnlRwKChGm5ODQdgbNBrHhd0JCDHyF39wo9Oy7BLgFUEZgcVCeNMI","store_review_count":"0","store_reviews_page_url":null,"price":"₹26,999.00","shipping":"Free delivery by Tue, 15 Aug","on_sale":"false","original_price":null,"product_condition":"NEW"}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"store_name":"JioMart - Electronics","store_rating":null,"offerpageurl":"https://www.jiomart.com/p/electronics/xiaomi-11i-5g-hyper-charge-128-gb-8-gb-pacific-pearl-mobile-phone/592109362?source=shoppingads","store_review_count":"0","store_reviews_page_url":null,"price":"₹24,999.00","shipping":"Free delivery by Mon, 7 Aug","on_sale":"false","original_price":null,"product_condition":"NEW"}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"store_name":"buyyzodigital","store_rating":null,"offerpageurl":"https://buyyzo.com/products/copy-of-xiaomi-12-pro-8gb-256gb?variant=43875743138034&amp;currency=INR&amp;utm_medium=product_sync&amp;utm_source=google&amp;utm_content=sag_organic&amp;utm_campaign=sag_organic&amp;srsltid=AfmBOoq1xISgdtdJLoRSxxF2Ysgg38jWPnzq3dsceBkidnClIsOjOYVjE-A","store_review_count":"0","store_reviews_page_url":null,"price":"₹26,999.00","shipping":"Free delivery by Thu, 17 Aug","on_sale":"false","original_price":null,"product_condition":"NEW"}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"store_name":"JustJaldi","store_rating":null,"offerpageurl":"https://www.justjaldi.com/redmi-note-11t-5g-matte-black-128-gb-6-gb-ram?srsltid=AfmBOorZIcGLIhFZOtlEzYV1JYBQxFsF8NYsG6Sfi265mh80v30pbgMPyLQ","store_review_count":"0","store_reviews_page_url":null,"price":"₹16,490.00","shipping":"Free delivery by Sat, 5 Aug","on_sale":"false","original_price":null,"product_condition":"NEW"}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"store_name":"DHgate online store","store_rating":null,"offerpageurl":"https://www.dhgate.com/product/original-xiaomi-mi-11-lite-5g-mobile-phone/700986241.html?f=bm%7CGMC%7C%7Bifdyn:dyn%7D%7Bifpla:pla%7D%7Bifdbm:DBM%7D%7C%7Bcampaignid%7D%7C%7Badgroupid%7D%7C700986241%7C%7Btargetid%7D%7C105014043%7CUS%7Csmartphone_saler%7C%7Bdevice%7D%7C2%7C&amp;utm_source=%7Bifdyn:dyn%7D%7Bifpla:pla%7D%7Bifdbm:DBM%7D&amp;utm_medium=GMC&amp;utm_campaign=smartphone_saler&amp;utm_term=700986241","store_review_count":"0","store_reviews_page_url":null,"price":"₹24,440.15 + tax","shipping":"Free delivery","on_sale":"false","original_price":null,"product_condition":"NEW"}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"store_name":"Zebrs","store_rating":null,"offerpageurl":"https://www.zebrs.com/products/xiaomi-11i-5g-stealth-black-128-gb-8-gb-ram","store_review_count":"0","store_reviews_page_url":null,"price":"₹27,499.00","shipping":"Free delivery by Sun, 20 Aug","on_sale":"false","original_price":null,"product_condition":"NEW"}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"store_name":"Fonebook","store_rating":null,"offerpageurl":"https://www.fonebook.in/product/redmi-11i-hypercharge-8gb-128gb-camo-green/?srsltid=AfmBOorOWsRNBPe1jK9UC_1WW2HS3v6Xn1tdgzH1qqFJh4yJX94d8cT7B_s","store_review_count":"0","store_reviews_page_url":null,"price":"₹29,499.00","shipping":"Free delivery by Thu, 10 Aug","on_sale":"false","original_price":null,"product_condition":"NEW"}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"store_name":"Mi Store Palava","store_rating":null,"offerpageurl":"https://mistorepalava.in/product/redmi-note-11-pro-5g-mirage-blue-8gb128gb/?utm_source=Google%20Shopping&amp;utm_campaign=Mi%20Store%20Palava&amp;utm_medium=cpc&amp;utm_term=11912&amp;srsltid=AfmBOooZtSY4GO_JCe77fwLqShu69Nige4W1_JCzT7OkINZYHxqU0jCKYHA","store_review_count":"0","store_reviews_page_url":null,"price":"₹22,999.00","shipping":"₹31.00 delivery by Wed, 9 Aug","on_sale":"false","original_price":null,"product_condition":"NEW"}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"store_name":"Jmdcommunication.com","store_rating":null,"offerpageurl":"https://jmdcommunication.com/products/xiaomi-11i-hypercharge-5g?variant=39757909721167&amp;currency=INR&amp;utm_medium=product_sync&amp;utm_source=google&amp;utm_content=sag_organic&amp;utm_campaign=sag_organic&amp;srsltid=AfmBOorbzeix_ifUokcKhr15inJDQiUHBaxe5j32zaZRLnoj0_0ab-CUpJQ","store_review_count":"0","store_reviews_page_url":null,"price":"₹26,999.00","shipping":"Free delivery by Tue, 15 Aug","on_sale":"false","original_price":null,"product_condition":"NEW"}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"store_name":"DHgate online store","store_rating":null,"offerpageurl":"https://www.dhgate.com/product/original-xiaomi-mi-11-lite-5g-mobile-phone/868494388.html?f=bm%7CGMC%7C%7Bifdyn:dyn%7D%7Bifpla:pla%7D%7Bifdbm:DBM%7D%7C%7Bcampaignid%7D%7C%7Badgroupid%7D%7C868494388%7C%7Btargetid%7D%7C105014043%7CUS%7Cd1wt%7C%7Bdevice%7D%7C2%7C&amp;utm_source=%7Bifdyn:dyn%7D%7Bifpla:pla%7D%7Bifdbm:DBM%7D&amp;utm_medium=GMC&amp;utm_campaign=d1wt&amp;utm_term=868494388","store_review_count":"0","store_reviews_page_url":null,"price":"₹26,252.86 + tax","shipping":"Free delivery","on_sale":"false","original_price":null,"product_condition":"NEW"}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"store_name":"OhLocal","store_rating":null,"offerpageurl":"https://www.ohlocal.in/product?detail=product_details&amp;product_id=SM115453XI&amp;srsltid=AfmBOooLKp4ewwE586boW0naEcOWIz1bGuf94-xEWy5w6rkJrm1Nq5x2pus","store_review_count":"0","store_reviews_page_url":null,"price":"₹23,010.00","shipping":"Free delivery by Wed, 16 Aug","on_sale":"false","original_price":null,"product_condition":"NEW"}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"store_name":"astore","store_rating":null,"offerpageurl":"https://www.astore.in/products/xiaomi-civi-3-mi-smartphone-original-5g?variant=45409058128150&amp;currency=INR&amp;utm_medium=product_sync&amp;utm_source=google&amp;utm_content=sag_organic&amp;utm_campaign=sag_organic&amp;srsltid=AfmBOorekoNzFJja7fq82zE2HxsuvOc595FqvbFSPu60CBOa6iElpDbFIvc","store_review_count":"0","store_reviews_page_url":null,"price":"₹59,999.00","shipping":"Free delivery by Tue, 15 Aug","on_sale":"false","original_price":null,"product_condition":"NEW"}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"store_name":"DHgate online store","store_rating":null,"offerpageurl":"https://www.dhgate.com/product/original-xiaomi-redmi-k30i-5g-mobile-phone/728329705.html?f=bm%7CGMC%7C%7Bifdyn:dyn%7D%7Bifpla:pla%7D%7Bifdbm:DBM%7D%7C%7Bcampaignid%7D%7C%7Badgroupid%7D%7C728329705%7C%7Btargetid%7D%7C105014043%7CUS%7Cnewest_price%7C%7Bdevice%7D%7C2%7C&amp;utm_source=%7Bifdyn:dyn%7D%7Bifpla:pla%7D%7Bifdbm:DBM%7D&amp;utm_medium=GMC&amp;utm_campaign=newest_price&amp;utm_term=728329705","store_review_count":"0","store_reviews_page_url":null,"price":"₹18,693.28 + tax","shipping":"Free delivery","on_sale":"false","original_price":null,"product_condition":"NEW"}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"store_name":"Supreme Mobiles","store_rating":null,"offerpageurl":"https://suprememobiles.in/products/xiaomi-11i-5g-8gb-ram-128gb-storage-spill-drop-protection?variant=41157080449081&amp;currency=INR&amp;utm_medium=product_sync&amp;utm_source=google&amp;utm_content=sag_organic&amp;utm_campaign=sag_organic&amp;srsltid=AfmBOooX80_GNwxA6IOr2SXMt5nlkB91J4LdK_tG2XOkOACG82Ai3DcNODY","store_review_count":"0","store_reviews_page_url":null,"price":"₹3,375.00","shipping":"Free delivery by Tue, 15 Aug","on_sale":"false","original_price":null,"product_condition":"NEW"}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"store_name":"Bidbuddy","store_rating":null,"offerpageurl":"http://www.bidbuddy.in/singleproduct?productname=Xiaomi%2011i%205G%20(AMOLED%20Display%206.67%20Inch)%20%7C%20Rear%20Camera108%20MP%20%7C%20(Camo%20Green,%20128%20GB)(6%20GB%20RAM)&amp;productid=IIEGH84GGPNRHZEZ","store_review_count":"0","store_reviews_page_url":null,"price":"₹29,999.00","shipping":"Free delivery by Wed, 9 Aug","on_sale":"false","original_price":null,"product_condition":"NEW"}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"store_name":"DYiParts.in","store_rating":null,"offerpageurl":"https://dyiparts.in/index.php/product/xiaomi-civi-3-5g-50mp-camera-12gb512gb/?srsltid=AfmBOopNC4mFKvaFEzvkE1T2Yr19I6bP_HMeh1XXLFSZ3eytgXYFa9SV200","store_review_count":"0","store_reviews_page_url":null,"price":"₹41,750.00","shipping":"₹50.00 delivery by Wed, 30 Aug","on_sale":"false","original_price":null,"product_condition":"NEW"}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"store_name":"Cashify","store_rating":null,"offerpageurl":"https://www.cashify.in/buy-refurbished-mobile-phones/renewed-xiaomi-redmi-k50i/89033?srsltid=AfmBOop2tLljOpuPVXGb-4Gh4kb73vzKCQDRVVB0b6CCNVow7orZG3YDRaI","store_review_count":"0","store_reviews_page_url":null,"price":"₹19,299.00","shipping":"Free delivery by Thu, 17 Aug","on_sale":"false","original_price":null,"product_condition":"REFURBISHED"}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"store_name":"OhLocal","store_rating":null,"offerpageurl":"https://www.ohlocal.in/product?detail=product_details&amp;product_id=SM940805XI&amp;srsltid=AfmBOooI9bNPc3khrrHRkehyMtfWhkrN_EGjqlaoBM0Qq_8b02d-k20k0iQ","store_review_count":"0","store_reviews_page_url":null,"price":"₹24,499.00","shipping":"Free delivery by Wed, 16 Aug","on_sale":"false","original_price":null,"product_condition":"NEW"}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"store_name":"DHgate online store","store_rating":null,"offerpageurl":"https://www.dhgate.com/product/original-xiaomi-civi-3-5g-mobile-phone-smart/882962579.html?f=bm%7CGMC%7C%7Bifdyn:dyn%7D%7Bifpla:pla%7D%7Bifdbm:DBM%7D%7C%7Bcampaignid%7D%7C%7Badgroupid%7D%7C882962579%7C%7Btargetid%7D%7C105014043%7CUS%7Coriginal_cellphone%7C%7Bdevice%7D%7C2%7C&amp;utm_source=%7Bifdyn:dyn%7D%7Bifpla:pla%7D%7Bifdbm:DBM%7D&amp;utm_medium=GMC&amp;utm_campaign=original_cellphone&amp;utm_term=882962579","store_review_count":"0","store_reviews_page_url":null,"price":"₹46,191.86 + tax","shipping":"Free delivery","on_sale":"false","original_price":null,"product_condition":"NEW"}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"store_name":"Etoren.com","store_rating":null,"offerpageurl":"https://www.etoren.com/products/xiaomi-civi-3-5g-dual-sim-256gb-mint-green-12gb-ram-china-version?utm_source=google&amp;utm_medium=free%20shopping&amp;utm_campaign=free%20shopping&amp;utm_content=free%20google%20shopping%20clicks","store_review_count":"0","store_reviews_page_url":null,"price":"₹37,826.90 + tax","shipping":"₹2,317.63 delivery by Sun, 20 Aug","on_sale":"false","original_price":null,"product_condition":"NEW"}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"store_name":"Zebrs","store_rating":null,"offerpageurl":"https://www.zebrs.com/products/xiaomi-11i-5g-hypercharge-purple-mist-6gb-ram-128gb-storage","store_review_count":"0","store_reviews_page_url":null,"price":"₹27,499.00","shipping":"Free delivery by Sun, 20 Aug","on_sale":"false","original_price":null,"product_condition":"NEW"}</x:t>
   </x:si>
 </x:sst>
 </file>
